--- a/static/template/商品导入模板.xlsx
+++ b/static/template/商品导入模板.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\日常工作\移动商城v1.4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45BA33B-B3E0-4CE5-92A0-567015CA23EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -21,13 +20,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>彭星</author>
     <author>86186</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -42,7 +41,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="C1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -85,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="D1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -109,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="E1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -124,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -137,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -151,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -164,7 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -179,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -194,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="K1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -218,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -232,7 +231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -247,7 +246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="1" shapeId="0" xr:uid="{9043546D-353A-4A9C-BF8D-8F33CB679CA0}">
+    <comment ref="N1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -275,7 +274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="1" shapeId="0" xr:uid="{34BB4C4C-43D1-4D04-8DB7-7DFF654B21C0}">
+    <comment ref="O1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -291,7 +290,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -307,7 +306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="Q1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -323,7 +322,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -344,7 +343,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>商品序号</t>
   </si>
@@ -445,10 +444,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> i</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>商品SKU编码</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -456,8 +451,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -930,34 +925,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.77734375" customWidth="1"/>
-    <col min="4" max="5" width="16.88671875" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="32.375" customWidth="1"/>
+    <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="4" max="5" width="16.875" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
     <col min="9" max="9" width="23" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" customWidth="1"/>
-    <col min="11" max="11" width="13.5546875" customWidth="1"/>
+    <col min="10" max="10" width="18.375" customWidth="1"/>
+    <col min="11" max="11" width="13.5" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="14.21875" customWidth="1"/>
+    <col min="13" max="13" width="14.25" customWidth="1"/>
     <col min="14" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="48.88671875" customWidth="1"/>
-    <col min="19" max="19" width="27.6640625" customWidth="1"/>
+    <col min="18" max="18" width="48.875" customWidth="1"/>
+    <col min="19" max="19" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="35.450000000000003" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -965,7 +960,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -1013,7 +1008,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="40.5">
       <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
@@ -1059,8 +1054,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="12" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="12" customFormat="1" ht="16.149999999999999" customHeight="1"/>
+    <row r="4" spans="1:18">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1080,7 +1075,7 @@
       <c r="Q4" s="6"/>
       <c r="R4" s="10"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1100,15 +1095,13 @@
       <c r="Q5" s="6"/>
       <c r="R5" s="10"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C6" s="13" t="s">
-        <v>28</v>
-      </c>
+    <row r="6" spans="1:18">
+      <c r="C6" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="R2" r:id="rId1" tooltip="https://test-omo.aiyouyi.cn/web-file/2/image/2e9cb/90415b43d249418882cc9a7013ab7cec.jpg" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="R2" r:id="rId1" tooltip="https://test-omo.aiyouyi.cn/web-file/2/image/2e9cb/90415b43d249418882cc9a7013ab7cec.jpg"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -1117,24 +1110,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="79.33203125" customWidth="1"/>
+    <col min="2" max="2" width="79.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="248.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="243">
       <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
@@ -1142,6 +1135,6 @@
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>